--- a/Certification Project - Automated UI Testing.xlsx
+++ b/Certification Project - Automated UI Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA Testing\QA Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1A8511-5C1E-4A2C-BFB4-67AD52763FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593D86D3-37F6-4276-A5D1-3FC8AB70D479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C368911-4D91-4136-9B52-EDFBD6448A2F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="151">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -547,9 +547,6 @@
     <t>Homepage loads with logo, search bar, navigation menu visible.</t>
   </si>
   <si>
-    <t>Sign Up form opens with input fields.</t>
-  </si>
-  <si>
     <t>Each link redirects to the correct page.</t>
   </si>
   <si>
@@ -624,6 +621,14 @@
   <si>
     <t>Due to being able to see restricted information of other users despite being a guest user leaves a potential path of vulnerability for a data breach or violation of confidentiality.
 Furthermore, if the url page isn't changed then it is still possible to see the same information despite not being logged in after closing and reopening the browser tab.</t>
+  </si>
+  <si>
+    <t>Sign up form shows up with input fields.
+User should be able to create an account.</t>
+  </si>
+  <si>
+    <t>Sign up shows up successfully as expected.
+A test account is created successfully.</t>
   </si>
 </sst>
 </file>
@@ -781,15 +786,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,6 +803,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1145,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD62E425-D290-4194-9368-A826DC50757D}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1168,10 +1173,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1181,8 +1186,8 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1192,8 +1197,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1203,15 +1208,15 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -1220,9 +1225,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -1280,7 +1285,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>114</v>
@@ -1327,14 +1332,16 @@
         <v>60</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="I9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>58</v>
@@ -1374,413 +1381,413 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="14" t="s">
+      <c r="H17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" s="16" t="s">
+      <c r="K22" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3"/>
